--- a/ac translations/Russian.xlsx
+++ b/ac translations/Russian.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15345" windowHeight="4545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Russian Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>Вместо использования небольшого адаптера из первого варианта, Вы можете сделать это самостоятельно</t>
+  </si>
+  <si>
+    <t>дистанционного для кондиционера для ____</t>
   </si>
   <si>
     <r>
@@ -1331,8 +1334,6 @@
       </rPr>
       <t>Ваш пульт отсутствует? Просто спросите нас об этом через приложение
 Особенности:
-* Управляйте своим ____ ТВ с телефона
-* VOLUME управляет вашим телевизором (вверх/вниз/без звука/av)
 * СОХРАНИТЕ ваши любимые пульты дистанционного управления для удобного доступа
 * НИКАКИХ установок, просто нажмите и включайте
 * Удивительный дизайн с крутым и легким интерфейсом</t>
@@ -1379,14 +1380,11 @@
       <t xml:space="preserve">Пульт дистанционного управления телевизором для вашего экрана воспроизведения </t>
     </r>
   </si>
-  <si>
-    <t>дистанционного для кондиционера для ____</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -1875,11 +1873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B134" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1924,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -3508,7 +3506,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="405">
+    <row r="136" spans="1:6" ht="375">
       <c r="A136" s="8" t="s">
         <v>263</v>
       </c>
@@ -3516,7 +3514,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Russian.xlsx
+++ b/ac translations/Russian.xlsx
@@ -1380,7 +1380,7 @@
     </r>
   </si>
   <si>
-    <t>Пульт дистанционного управления для кондиционера для ____ - БЕСПЛАТНО</t>
+    <t>дистанционного для кондиционера для ____</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
